--- a/0_0_Data/2_Processed_Data/1_rt_GDP_series/absolute_rt_GDP_data.xlsx
+++ b/0_0_Data/2_Processed_Data/1_rt_GDP_series/absolute_rt_GDP_data.xlsx
@@ -380,13 +380,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CE140"/>
+  <dimension ref="A1:CF141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:83">
+    <row r="1" spans="1:84">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -636,8 +636,11 @@
       <c r="CE1" s="2">
         <v>45891</v>
       </c>
+      <c r="CF1" s="2">
+        <v>45986</v>
+      </c>
     </row>
-    <row r="2" spans="1:83">
+    <row r="2" spans="1:84">
       <c r="A2" s="2">
         <v>33284</v>
       </c>
@@ -887,8 +890,11 @@
       <c r="CE2">
         <v>70.81</v>
       </c>
+      <c r="CF2">
+        <v>70.81</v>
+      </c>
     </row>
-    <row r="3" spans="1:83">
+    <row r="3" spans="1:84">
       <c r="A3" s="2">
         <v>33374</v>
       </c>
@@ -1138,8 +1144,11 @@
       <c r="CE3">
         <v>70.47</v>
       </c>
+      <c r="CF3">
+        <v>70.47</v>
+      </c>
     </row>
-    <row r="4" spans="1:83">
+    <row r="4" spans="1:84">
       <c r="A4" s="2">
         <v>33465</v>
       </c>
@@ -1389,8 +1398,11 @@
       <c r="CE4">
         <v>70.36</v>
       </c>
+      <c r="CF4">
+        <v>70.36</v>
+      </c>
     </row>
-    <row r="5" spans="1:83">
+    <row r="5" spans="1:84">
       <c r="A5" s="2">
         <v>33557</v>
       </c>
@@ -1640,8 +1652,11 @@
       <c r="CE5">
         <v>71.37</v>
       </c>
+      <c r="CF5">
+        <v>71.37</v>
+      </c>
     </row>
-    <row r="6" spans="1:83">
+    <row r="6" spans="1:84">
       <c r="A6" s="2">
         <v>33649</v>
       </c>
@@ -1891,8 +1906,11 @@
       <c r="CE6">
         <v>72.34999999999999</v>
       </c>
+      <c r="CF6">
+        <v>72.34999999999999</v>
+      </c>
     </row>
-    <row r="7" spans="1:83">
+    <row r="7" spans="1:84">
       <c r="A7" s="2">
         <v>33740</v>
       </c>
@@ -2142,8 +2160,11 @@
       <c r="CE7">
         <v>71.90000000000001</v>
       </c>
+      <c r="CF7">
+        <v>71.90000000000001</v>
+      </c>
     </row>
-    <row r="8" spans="1:83">
+    <row r="8" spans="1:84">
       <c r="A8" s="2">
         <v>33831</v>
       </c>
@@ -2393,8 +2414,11 @@
       <c r="CE8">
         <v>71.73</v>
       </c>
+      <c r="CF8">
+        <v>71.73</v>
+      </c>
     </row>
-    <row r="9" spans="1:83">
+    <row r="9" spans="1:84">
       <c r="A9" s="2">
         <v>33923</v>
       </c>
@@ -2644,8 +2668,11 @@
       <c r="CE9">
         <v>71.53</v>
       </c>
+      <c r="CF9">
+        <v>71.53</v>
+      </c>
     </row>
-    <row r="10" spans="1:83">
+    <row r="10" spans="1:84">
       <c r="A10" s="2">
         <v>34015</v>
       </c>
@@ -2895,8 +2922,11 @@
       <c r="CE10">
         <v>70.95999999999999</v>
       </c>
+      <c r="CF10">
+        <v>70.95999999999999</v>
+      </c>
     </row>
-    <row r="11" spans="1:83">
+    <row r="11" spans="1:84">
       <c r="A11" s="2">
         <v>34105</v>
       </c>
@@ -3146,8 +3176,11 @@
       <c r="CE11">
         <v>70.97</v>
       </c>
+      <c r="CF11">
+        <v>70.97</v>
+      </c>
     </row>
-    <row r="12" spans="1:83">
+    <row r="12" spans="1:84">
       <c r="A12" s="2">
         <v>34196</v>
       </c>
@@ -3397,8 +3430,11 @@
       <c r="CE12">
         <v>71.39</v>
       </c>
+      <c r="CF12">
+        <v>71.39</v>
+      </c>
     </row>
-    <row r="13" spans="1:83">
+    <row r="13" spans="1:84">
       <c r="A13" s="2">
         <v>34288</v>
       </c>
@@ -3648,8 +3684,11 @@
       <c r="CE13">
         <v>71.33</v>
       </c>
+      <c r="CF13">
+        <v>71.33</v>
+      </c>
     </row>
-    <row r="14" spans="1:83">
+    <row r="14" spans="1:84">
       <c r="A14" s="2">
         <v>34380</v>
       </c>
@@ -3899,8 +3938,11 @@
       <c r="CE14">
         <v>72.34</v>
       </c>
+      <c r="CF14">
+        <v>72.34</v>
+      </c>
     </row>
-    <row r="15" spans="1:83">
+    <row r="15" spans="1:84">
       <c r="A15" s="2">
         <v>34470</v>
       </c>
@@ -4150,8 +4192,11 @@
       <c r="CE15">
         <v>72.73999999999999</v>
       </c>
+      <c r="CF15">
+        <v>72.73999999999999</v>
+      </c>
     </row>
-    <row r="16" spans="1:83">
+    <row r="16" spans="1:84">
       <c r="A16" s="2">
         <v>34561</v>
       </c>
@@ -4401,8 +4446,11 @@
       <c r="CE16">
         <v>73.17</v>
       </c>
+      <c r="CF16">
+        <v>73.17</v>
+      </c>
     </row>
-    <row r="17" spans="1:83">
+    <row r="17" spans="1:84">
       <c r="A17" s="2">
         <v>34653</v>
       </c>
@@ -4652,8 +4700,11 @@
       <c r="CE17">
         <v>73.98</v>
       </c>
+      <c r="CF17">
+        <v>73.98</v>
+      </c>
     </row>
-    <row r="18" spans="1:83">
+    <row r="18" spans="1:84">
       <c r="A18" s="2">
         <v>34745</v>
       </c>
@@ -4903,8 +4954,11 @@
       <c r="CE18">
         <v>73.69</v>
       </c>
+      <c r="CF18">
+        <v>73.69</v>
+      </c>
     </row>
-    <row r="19" spans="1:83">
+    <row r="19" spans="1:84">
       <c r="A19" s="2">
         <v>34835</v>
       </c>
@@ -5154,8 +5208,11 @@
       <c r="CE19">
         <v>74.28</v>
       </c>
+      <c r="CF19">
+        <v>74.28</v>
+      </c>
     </row>
-    <row r="20" spans="1:83">
+    <row r="20" spans="1:84">
       <c r="A20" s="2">
         <v>34926</v>
       </c>
@@ -5405,8 +5462,11 @@
       <c r="CE20">
         <v>74.43000000000001</v>
       </c>
+      <c r="CF20">
+        <v>74.43000000000001</v>
+      </c>
     </row>
-    <row r="21" spans="1:83">
+    <row r="21" spans="1:84">
       <c r="A21" s="2">
         <v>35018</v>
       </c>
@@ -5656,8 +5716,11 @@
       <c r="CE21">
         <v>74.45999999999999</v>
       </c>
+      <c r="CF21">
+        <v>74.45999999999999</v>
+      </c>
     </row>
-    <row r="22" spans="1:83">
+    <row r="22" spans="1:84">
       <c r="A22" s="2">
         <v>35110</v>
       </c>
@@ -5907,8 +5970,11 @@
       <c r="CE22">
         <v>73.93000000000001</v>
       </c>
+      <c r="CF22">
+        <v>73.93000000000001</v>
+      </c>
     </row>
-    <row r="23" spans="1:83">
+    <row r="23" spans="1:84">
       <c r="A23" s="2">
         <v>35201</v>
       </c>
@@ -6158,8 +6224,11 @@
       <c r="CE23">
         <v>74.94</v>
       </c>
+      <c r="CF23">
+        <v>74.94</v>
+      </c>
     </row>
-    <row r="24" spans="1:83">
+    <row r="24" spans="1:84">
       <c r="A24" s="2">
         <v>35292</v>
       </c>
@@ -6409,8 +6478,11 @@
       <c r="CE24">
         <v>75.23</v>
       </c>
+      <c r="CF24">
+        <v>75.23</v>
+      </c>
     </row>
-    <row r="25" spans="1:83">
+    <row r="25" spans="1:84">
       <c r="A25" s="2">
         <v>35384</v>
       </c>
@@ -6660,8 +6732,11 @@
       <c r="CE25">
         <v>75.92</v>
       </c>
+      <c r="CF25">
+        <v>75.92</v>
+      </c>
     </row>
-    <row r="26" spans="1:83">
+    <row r="26" spans="1:84">
       <c r="A26" s="2">
         <v>35476</v>
       </c>
@@ -6911,8 +6986,11 @@
       <c r="CE26">
         <v>75.53</v>
       </c>
+      <c r="CF26">
+        <v>75.53</v>
+      </c>
     </row>
-    <row r="27" spans="1:83">
+    <row r="27" spans="1:84">
       <c r="A27" s="2">
         <v>35566</v>
       </c>
@@ -7162,8 +7240,11 @@
       <c r="CE27">
         <v>76.37</v>
       </c>
+      <c r="CF27">
+        <v>76.37</v>
+      </c>
     </row>
-    <row r="28" spans="1:83">
+    <row r="28" spans="1:84">
       <c r="A28" s="2">
         <v>35657</v>
       </c>
@@ -7413,8 +7494,11 @@
       <c r="CE28">
         <v>76.67</v>
       </c>
+      <c r="CF28">
+        <v>76.67</v>
+      </c>
     </row>
-    <row r="29" spans="1:83">
+    <row r="29" spans="1:84">
       <c r="A29" s="2">
         <v>35749</v>
       </c>
@@ -7664,8 +7748,11 @@
       <c r="CE29">
         <v>77.23999999999999</v>
       </c>
+      <c r="CF29">
+        <v>77.23999999999999</v>
+      </c>
     </row>
-    <row r="30" spans="1:83">
+    <row r="30" spans="1:84">
       <c r="A30" s="2">
         <v>35841</v>
       </c>
@@ -7915,8 +8002,11 @@
       <c r="CE30">
         <v>77.98</v>
       </c>
+      <c r="CF30">
+        <v>77.98</v>
+      </c>
     </row>
-    <row r="31" spans="1:83">
+    <row r="31" spans="1:84">
       <c r="A31" s="2">
         <v>35931</v>
       </c>
@@ -8166,8 +8256,11 @@
       <c r="CE31">
         <v>77.62</v>
       </c>
+      <c r="CF31">
+        <v>77.62</v>
+      </c>
     </row>
-    <row r="32" spans="1:83">
+    <row r="32" spans="1:84">
       <c r="A32" s="2">
         <v>36022</v>
       </c>
@@ -8417,8 +8510,11 @@
       <c r="CE32">
         <v>78</v>
       </c>
+      <c r="CF32">
+        <v>78</v>
+      </c>
     </row>
-    <row r="33" spans="1:83">
+    <row r="33" spans="1:84">
       <c r="A33" s="2">
         <v>36114</v>
       </c>
@@ -8668,8 +8764,11 @@
       <c r="CE33">
         <v>77.98</v>
       </c>
+      <c r="CF33">
+        <v>77.98</v>
+      </c>
     </row>
-    <row r="34" spans="1:83">
+    <row r="34" spans="1:84">
       <c r="A34" s="2">
         <v>36206</v>
       </c>
@@ -8919,8 +9018,11 @@
       <c r="CE34">
         <v>78.88</v>
       </c>
+      <c r="CF34">
+        <v>78.88</v>
+      </c>
     </row>
-    <row r="35" spans="1:83">
+    <row r="35" spans="1:84">
       <c r="A35" s="2">
         <v>36296</v>
       </c>
@@ -9170,8 +9272,11 @@
       <c r="CE35">
         <v>78.78</v>
       </c>
+      <c r="CF35">
+        <v>78.78</v>
+      </c>
     </row>
-    <row r="36" spans="1:83">
+    <row r="36" spans="1:84">
       <c r="A36" s="2">
         <v>36387</v>
       </c>
@@ -9421,8 +9526,11 @@
       <c r="CE36">
         <v>79.86</v>
       </c>
+      <c r="CF36">
+        <v>79.86</v>
+      </c>
     </row>
-    <row r="37" spans="1:83">
+    <row r="37" spans="1:84">
       <c r="A37" s="2">
         <v>36479</v>
       </c>
@@ -9672,8 +9780,11 @@
       <c r="CE37">
         <v>80.23999999999999</v>
       </c>
+      <c r="CF37">
+        <v>80.23999999999999</v>
+      </c>
     </row>
-    <row r="38" spans="1:83">
+    <row r="38" spans="1:84">
       <c r="A38" s="2">
         <v>36571</v>
       </c>
@@ -9923,8 +10034,11 @@
       <c r="CE38">
         <v>81.48</v>
       </c>
+      <c r="CF38">
+        <v>81.48</v>
+      </c>
     </row>
-    <row r="39" spans="1:83">
+    <row r="39" spans="1:84">
       <c r="A39" s="2">
         <v>36662</v>
       </c>
@@ -10174,8 +10288,11 @@
       <c r="CE39">
         <v>82.13</v>
       </c>
+      <c r="CF39">
+        <v>82.13</v>
+      </c>
     </row>
-    <row r="40" spans="1:83">
+    <row r="40" spans="1:84">
       <c r="A40" s="2">
         <v>36753</v>
       </c>
@@ -10425,8 +10542,11 @@
       <c r="CE40">
         <v>82.19</v>
       </c>
+      <c r="CF40">
+        <v>82.19</v>
+      </c>
     </row>
-    <row r="41" spans="1:83">
+    <row r="41" spans="1:84">
       <c r="A41" s="2">
         <v>36845</v>
       </c>
@@ -10676,8 +10796,11 @@
       <c r="CE41">
         <v>81.84</v>
       </c>
+      <c r="CF41">
+        <v>81.84</v>
+      </c>
     </row>
-    <row r="42" spans="1:83">
+    <row r="42" spans="1:84">
       <c r="A42" s="2">
         <v>36937</v>
       </c>
@@ -10927,8 +11050,11 @@
       <c r="CE42">
         <v>83.58</v>
       </c>
+      <c r="CF42">
+        <v>83.58</v>
+      </c>
     </row>
-    <row r="43" spans="1:83">
+    <row r="43" spans="1:84">
       <c r="A43" s="2">
         <v>37027</v>
       </c>
@@ -11178,8 +11304,11 @@
       <c r="CE43">
         <v>83.37</v>
       </c>
+      <c r="CF43">
+        <v>83.37</v>
+      </c>
     </row>
-    <row r="44" spans="1:83">
+    <row r="44" spans="1:84">
       <c r="A44" s="2">
         <v>37118</v>
       </c>
@@ -11429,8 +11558,11 @@
       <c r="CE44">
         <v>83.37</v>
       </c>
+      <c r="CF44">
+        <v>83.37</v>
+      </c>
     </row>
-    <row r="45" spans="1:83">
+    <row r="45" spans="1:84">
       <c r="A45" s="2">
         <v>37210</v>
       </c>
@@ -11680,8 +11812,11 @@
       <c r="CE45">
         <v>83.11</v>
       </c>
+      <c r="CF45">
+        <v>83.11</v>
+      </c>
     </row>
-    <row r="46" spans="1:83">
+    <row r="46" spans="1:84">
       <c r="A46" s="2">
         <v>37302</v>
       </c>
@@ -11931,8 +12066,11 @@
       <c r="CE46">
         <v>82.72</v>
       </c>
+      <c r="CF46">
+        <v>82.72</v>
+      </c>
     </row>
-    <row r="47" spans="1:83">
+    <row r="47" spans="1:84">
       <c r="A47" s="2">
         <v>37392</v>
       </c>
@@ -12182,8 +12320,11 @@
       <c r="CE47">
         <v>83.04000000000001</v>
       </c>
+      <c r="CF47">
+        <v>83.04000000000001</v>
+      </c>
     </row>
-    <row r="48" spans="1:83">
+    <row r="48" spans="1:84">
       <c r="A48" s="2">
         <v>37483</v>
       </c>
@@ -12433,8 +12574,11 @@
       <c r="CE48">
         <v>83.61</v>
       </c>
+      <c r="CF48">
+        <v>83.61</v>
+      </c>
     </row>
-    <row r="49" spans="1:83">
+    <row r="49" spans="1:84">
       <c r="A49" s="2">
         <v>37575</v>
       </c>
@@ -12684,8 +12828,11 @@
       <c r="CE49">
         <v>83.38</v>
       </c>
+      <c r="CF49">
+        <v>83.38</v>
+      </c>
     </row>
-    <row r="50" spans="1:83">
+    <row r="50" spans="1:84">
       <c r="A50" s="2">
         <v>37667</v>
       </c>
@@ -12935,8 +13082,11 @@
       <c r="CE50">
         <v>82.25</v>
       </c>
+      <c r="CF50">
+        <v>82.25</v>
+      </c>
     </row>
-    <row r="51" spans="1:83">
+    <row r="51" spans="1:84">
       <c r="A51" s="2">
         <v>37757</v>
       </c>
@@ -13186,8 +13336,11 @@
       <c r="CE51">
         <v>82.37</v>
       </c>
+      <c r="CF51">
+        <v>82.37</v>
+      </c>
     </row>
-    <row r="52" spans="1:83">
+    <row r="52" spans="1:84">
       <c r="A52" s="2">
         <v>37848</v>
       </c>
@@ -13437,8 +13590,11 @@
       <c r="CE52">
         <v>83.12</v>
       </c>
+      <c r="CF52">
+        <v>83.12</v>
+      </c>
     </row>
-    <row r="53" spans="1:83">
+    <row r="53" spans="1:84">
       <c r="A53" s="2">
         <v>37940</v>
       </c>
@@ -13688,8 +13844,11 @@
       <c r="CE53">
         <v>83.22</v>
       </c>
+      <c r="CF53">
+        <v>83.22</v>
+      </c>
     </row>
-    <row r="54" spans="1:83">
+    <row r="54" spans="1:84">
       <c r="A54" s="2">
         <v>38032</v>
       </c>
@@ -13939,8 +14098,11 @@
       <c r="CE54">
         <v>83.09</v>
       </c>
+      <c r="CF54">
+        <v>83.09</v>
+      </c>
     </row>
-    <row r="55" spans="1:83">
+    <row r="55" spans="1:84">
       <c r="A55" s="2">
         <v>38123</v>
       </c>
@@ -14190,8 +14352,11 @@
       <c r="CE55">
         <v>83.58</v>
       </c>
+      <c r="CF55">
+        <v>83.58</v>
+      </c>
     </row>
-    <row r="56" spans="1:83">
+    <row r="56" spans="1:84">
       <c r="A56" s="2">
         <v>38214</v>
       </c>
@@ -14441,8 +14606,11 @@
       <c r="CE56">
         <v>83.31</v>
       </c>
+      <c r="CF56">
+        <v>83.31</v>
+      </c>
     </row>
-    <row r="57" spans="1:83">
+    <row r="57" spans="1:84">
       <c r="A57" s="2">
         <v>38306</v>
       </c>
@@ -14692,8 +14860,11 @@
       <c r="CE57">
         <v>83.28</v>
       </c>
+      <c r="CF57">
+        <v>83.28</v>
+      </c>
     </row>
-    <row r="58" spans="1:83">
+    <row r="58" spans="1:84">
       <c r="A58" s="2">
         <v>38398</v>
       </c>
@@ -14943,8 +15114,11 @@
       <c r="CE58">
         <v>83.41</v>
       </c>
+      <c r="CF58">
+        <v>83.41</v>
+      </c>
     </row>
-    <row r="59" spans="1:83">
+    <row r="59" spans="1:84">
       <c r="A59" s="2">
         <v>38488</v>
       </c>
@@ -15191,8 +15365,11 @@
       <c r="CE59">
         <v>83.91</v>
       </c>
+      <c r="CF59">
+        <v>83.91</v>
+      </c>
     </row>
-    <row r="60" spans="1:83">
+    <row r="60" spans="1:84">
       <c r="A60" s="2">
         <v>38579</v>
       </c>
@@ -15436,8 +15613,11 @@
       <c r="CE60">
         <v>84.56999999999999</v>
       </c>
+      <c r="CF60">
+        <v>84.56999999999999</v>
+      </c>
     </row>
-    <row r="61" spans="1:83">
+    <row r="61" spans="1:84">
       <c r="A61" s="2">
         <v>38671</v>
       </c>
@@ -15678,8 +15858,11 @@
       <c r="CE61">
         <v>84.89</v>
       </c>
+      <c r="CF61">
+        <v>84.89</v>
+      </c>
     </row>
-    <row r="62" spans="1:83">
+    <row r="62" spans="1:84">
       <c r="A62" s="2">
         <v>38763</v>
       </c>
@@ -15917,8 +16100,11 @@
       <c r="CE62">
         <v>85.84</v>
       </c>
+      <c r="CF62">
+        <v>85.84</v>
+      </c>
     </row>
-    <row r="63" spans="1:83">
+    <row r="63" spans="1:84">
       <c r="A63" s="2">
         <v>38853</v>
       </c>
@@ -16153,8 +16339,11 @@
       <c r="CE63">
         <v>87.31</v>
       </c>
+      <c r="CF63">
+        <v>87.31</v>
+      </c>
     </row>
-    <row r="64" spans="1:83">
+    <row r="64" spans="1:84">
       <c r="A64" s="2">
         <v>38944</v>
       </c>
@@ -16386,8 +16575,11 @@
       <c r="CE64">
         <v>87.97</v>
       </c>
+      <c r="CF64">
+        <v>87.97</v>
+      </c>
     </row>
-    <row r="65" spans="1:83">
+    <row r="65" spans="1:84">
       <c r="A65" s="2">
         <v>39036</v>
       </c>
@@ -16616,8 +16808,11 @@
       <c r="CE65">
         <v>89.26000000000001</v>
       </c>
+      <c r="CF65">
+        <v>89.26000000000001</v>
+      </c>
     </row>
-    <row r="66" spans="1:83">
+    <row r="66" spans="1:84">
       <c r="A66" s="2">
         <v>39128</v>
       </c>
@@ -16843,8 +17038,11 @@
       <c r="CE66">
         <v>89.38</v>
       </c>
+      <c r="CF66">
+        <v>89.38</v>
+      </c>
     </row>
-    <row r="67" spans="1:83">
+    <row r="67" spans="1:84">
       <c r="A67" s="2">
         <v>39218</v>
       </c>
@@ -17067,8 +17265,11 @@
       <c r="CE67">
         <v>89.97</v>
       </c>
+      <c r="CF67">
+        <v>89.97</v>
+      </c>
     </row>
-    <row r="68" spans="1:83">
+    <row r="68" spans="1:84">
       <c r="A68" s="2">
         <v>39309</v>
       </c>
@@ -17288,8 +17489,11 @@
       <c r="CE68">
         <v>90.43000000000001</v>
       </c>
+      <c r="CF68">
+        <v>90.43000000000001</v>
+      </c>
     </row>
-    <row r="69" spans="1:83">
+    <row r="69" spans="1:84">
       <c r="A69" s="2">
         <v>39401</v>
       </c>
@@ -17506,8 +17710,11 @@
       <c r="CE69">
         <v>91.09999999999999</v>
       </c>
+      <c r="CF69">
+        <v>91.09999999999999</v>
+      </c>
     </row>
-    <row r="70" spans="1:83">
+    <row r="70" spans="1:84">
       <c r="A70" s="2">
         <v>39493</v>
       </c>
@@ -17721,8 +17928,11 @@
       <c r="CE70">
         <v>91.63</v>
       </c>
+      <c r="CF70">
+        <v>91.63</v>
+      </c>
     </row>
-    <row r="71" spans="1:83">
+    <row r="71" spans="1:84">
       <c r="A71" s="2">
         <v>39584</v>
       </c>
@@ -17933,8 +18143,11 @@
       <c r="CE71">
         <v>91.3</v>
       </c>
+      <c r="CF71">
+        <v>91.3</v>
+      </c>
     </row>
-    <row r="72" spans="1:83">
+    <row r="72" spans="1:84">
       <c r="A72" s="2">
         <v>39675</v>
       </c>
@@ -18142,8 +18355,11 @@
       <c r="CE72">
         <v>90.8</v>
       </c>
+      <c r="CF72">
+        <v>90.8</v>
+      </c>
     </row>
-    <row r="73" spans="1:83">
+    <row r="73" spans="1:84">
       <c r="A73" s="2">
         <v>39767</v>
       </c>
@@ -18348,8 +18564,11 @@
       <c r="CE73">
         <v>89.39</v>
       </c>
+      <c r="CF73">
+        <v>89.39</v>
+      </c>
     </row>
-    <row r="74" spans="1:83">
+    <row r="74" spans="1:84">
       <c r="A74" s="2">
         <v>39859</v>
       </c>
@@ -18551,8 +18770,11 @@
       <c r="CE74">
         <v>85.2</v>
       </c>
+      <c r="CF74">
+        <v>85.2</v>
+      </c>
     </row>
-    <row r="75" spans="1:83">
+    <row r="75" spans="1:84">
       <c r="A75" s="2">
         <v>39949</v>
       </c>
@@ -18751,8 +18973,11 @@
       <c r="CE75">
         <v>85.41</v>
       </c>
+      <c r="CF75">
+        <v>85.41</v>
+      </c>
     </row>
-    <row r="76" spans="1:83">
+    <row r="76" spans="1:84">
       <c r="A76" s="2">
         <v>40040</v>
       </c>
@@ -18948,8 +19173,11 @@
       <c r="CE76">
         <v>85.94</v>
       </c>
+      <c r="CF76">
+        <v>85.94</v>
+      </c>
     </row>
-    <row r="77" spans="1:83">
+    <row r="77" spans="1:84">
       <c r="A77" s="2">
         <v>40132</v>
       </c>
@@ -19142,8 +19370,11 @@
       <c r="CE77">
         <v>86.59999999999999</v>
       </c>
+      <c r="CF77">
+        <v>86.59999999999999</v>
+      </c>
     </row>
-    <row r="78" spans="1:83">
+    <row r="78" spans="1:84">
       <c r="A78" s="2">
         <v>40224</v>
       </c>
@@ -19333,8 +19564,11 @@
       <c r="CE78">
         <v>87.23</v>
       </c>
+      <c r="CF78">
+        <v>87.23</v>
+      </c>
     </row>
-    <row r="79" spans="1:83">
+    <row r="79" spans="1:84">
       <c r="A79" s="2">
         <v>40314</v>
       </c>
@@ -19521,8 +19755,11 @@
       <c r="CE79">
         <v>89.12</v>
       </c>
+      <c r="CF79">
+        <v>89.12</v>
+      </c>
     </row>
-    <row r="80" spans="1:83">
+    <row r="80" spans="1:84">
       <c r="A80" s="2">
         <v>40405</v>
       </c>
@@ -19706,8 +19943,11 @@
       <c r="CE80">
         <v>89.98</v>
       </c>
+      <c r="CF80">
+        <v>89.98</v>
+      </c>
     </row>
-    <row r="81" spans="1:83">
+    <row r="81" spans="1:84">
       <c r="A81" s="2">
         <v>40497</v>
       </c>
@@ -19888,8 +20128,11 @@
       <c r="CE81">
         <v>90.56999999999999</v>
       </c>
+      <c r="CF81">
+        <v>90.56999999999999</v>
+      </c>
     </row>
-    <row r="82" spans="1:83">
+    <row r="82" spans="1:84">
       <c r="A82" s="2">
         <v>40589</v>
       </c>
@@ -20067,8 +20310,11 @@
       <c r="CE82">
         <v>92.20999999999999</v>
       </c>
+      <c r="CF82">
+        <v>92.20999999999999</v>
+      </c>
     </row>
-    <row r="83" spans="1:83">
+    <row r="83" spans="1:84">
       <c r="A83" s="2">
         <v>40679</v>
       </c>
@@ -20243,8 +20489,11 @@
       <c r="CE83">
         <v>92.45999999999999</v>
       </c>
+      <c r="CF83">
+        <v>92.45999999999999</v>
+      </c>
     </row>
-    <row r="84" spans="1:83">
+    <row r="84" spans="1:84">
       <c r="A84" s="2">
         <v>40770</v>
       </c>
@@ -20416,8 +20665,11 @@
       <c r="CE84">
         <v>92.95999999999999</v>
       </c>
+      <c r="CF84">
+        <v>92.95999999999999</v>
+      </c>
     </row>
-    <row r="85" spans="1:83">
+    <row r="85" spans="1:84">
       <c r="A85" s="2">
         <v>40862</v>
       </c>
@@ -20586,8 +20838,11 @@
       <c r="CE85">
         <v>92.95</v>
       </c>
+      <c r="CF85">
+        <v>92.95</v>
+      </c>
     </row>
-    <row r="86" spans="1:83">
+    <row r="86" spans="1:84">
       <c r="A86" s="2">
         <v>40954</v>
       </c>
@@ -20753,8 +21008,11 @@
       <c r="CE86">
         <v>93.15000000000001</v>
       </c>
+      <c r="CF86">
+        <v>93.15000000000001</v>
+      </c>
     </row>
-    <row r="87" spans="1:83">
+    <row r="87" spans="1:84">
       <c r="A87" s="2">
         <v>41045</v>
       </c>
@@ -20917,8 +21175,11 @@
       <c r="CE87">
         <v>93.25</v>
       </c>
+      <c r="CF87">
+        <v>93.25</v>
+      </c>
     </row>
-    <row r="88" spans="1:83">
+    <row r="88" spans="1:84">
       <c r="A88" s="2">
         <v>41136</v>
       </c>
@@ -21078,8 +21339,11 @@
       <c r="CE88">
         <v>93.44</v>
       </c>
+      <c r="CF88">
+        <v>93.44</v>
+      </c>
     </row>
-    <row r="89" spans="1:83">
+    <row r="89" spans="1:84">
       <c r="A89" s="2">
         <v>41228</v>
       </c>
@@ -21236,8 +21500,11 @@
       <c r="CE89">
         <v>93.16</v>
       </c>
+      <c r="CF89">
+        <v>93.16</v>
+      </c>
     </row>
-    <row r="90" spans="1:83">
+    <row r="90" spans="1:84">
       <c r="A90" s="2">
         <v>41320</v>
       </c>
@@ -21391,8 +21658,11 @@
       <c r="CE90">
         <v>92.64</v>
       </c>
+      <c r="CF90">
+        <v>92.64</v>
+      </c>
     </row>
-    <row r="91" spans="1:83">
+    <row r="91" spans="1:84">
       <c r="A91" s="2">
         <v>41410</v>
       </c>
@@ -21543,8 +21813,11 @@
       <c r="CE91">
         <v>93.72</v>
       </c>
+      <c r="CF91">
+        <v>93.72</v>
+      </c>
     </row>
-    <row r="92" spans="1:83">
+    <row r="92" spans="1:84">
       <c r="A92" s="2">
         <v>41501</v>
       </c>
@@ -21692,8 +21965,11 @@
       <c r="CE92">
         <v>94.2</v>
       </c>
+      <c r="CF92">
+        <v>94.2</v>
+      </c>
     </row>
-    <row r="93" spans="1:83">
+    <row r="93" spans="1:84">
       <c r="A93" s="2">
         <v>41593</v>
       </c>
@@ -21838,8 +22114,11 @@
       <c r="CE93">
         <v>94.34</v>
       </c>
+      <c r="CF93">
+        <v>94.34</v>
+      </c>
     </row>
-    <row r="94" spans="1:83">
+    <row r="94" spans="1:84">
       <c r="A94" s="2">
         <v>41685</v>
       </c>
@@ -21981,8 +22260,11 @@
       <c r="CE94">
         <v>95.33</v>
       </c>
+      <c r="CF94">
+        <v>95.33</v>
+      </c>
     </row>
-    <row r="95" spans="1:83">
+    <row r="95" spans="1:84">
       <c r="A95" s="2">
         <v>41775</v>
       </c>
@@ -22121,8 +22403,11 @@
       <c r="CE95">
         <v>95.31</v>
       </c>
+      <c r="CF95">
+        <v>95.31</v>
+      </c>
     </row>
-    <row r="96" spans="1:83">
+    <row r="96" spans="1:84">
       <c r="A96" s="2">
         <v>41866</v>
       </c>
@@ -22258,8 +22543,11 @@
       <c r="CE96">
         <v>95.84</v>
       </c>
+      <c r="CF96">
+        <v>95.84</v>
+      </c>
     </row>
-    <row r="97" spans="1:83">
+    <row r="97" spans="1:84">
       <c r="A97" s="2">
         <v>41958</v>
       </c>
@@ -22392,8 +22680,11 @@
       <c r="CE97">
         <v>96.56999999999999</v>
       </c>
+      <c r="CF97">
+        <v>96.56999999999999</v>
+      </c>
     </row>
-    <row r="98" spans="1:83">
+    <row r="98" spans="1:84">
       <c r="A98" s="2">
         <v>42050</v>
       </c>
@@ -22523,8 +22814,11 @@
       <c r="CE98">
         <v>96.36</v>
       </c>
+      <c r="CF98">
+        <v>96.36</v>
+      </c>
     </row>
-    <row r="99" spans="1:83">
+    <row r="99" spans="1:84">
       <c r="A99" s="2">
         <v>42140</v>
       </c>
@@ -22651,8 +22945,11 @@
       <c r="CE99">
         <v>96.86</v>
       </c>
+      <c r="CF99">
+        <v>96.86</v>
+      </c>
     </row>
-    <row r="100" spans="1:83">
+    <row r="100" spans="1:84">
       <c r="A100" s="2">
         <v>42231</v>
       </c>
@@ -22776,8 +23073,11 @@
       <c r="CE100">
         <v>97.38</v>
       </c>
+      <c r="CF100">
+        <v>97.38</v>
+      </c>
     </row>
-    <row r="101" spans="1:83">
+    <row r="101" spans="1:84">
       <c r="A101" s="2">
         <v>42323</v>
       </c>
@@ -22898,8 +23198,11 @@
       <c r="CE101">
         <v>97.88</v>
       </c>
+      <c r="CF101">
+        <v>97.88</v>
+      </c>
     </row>
-    <row r="102" spans="1:83">
+    <row r="102" spans="1:84">
       <c r="A102" s="2">
         <v>42415</v>
       </c>
@@ -23017,8 +23320,11 @@
       <c r="CE102">
         <v>98.73999999999999</v>
       </c>
+      <c r="CF102">
+        <v>98.73999999999999</v>
+      </c>
     </row>
-    <row r="103" spans="1:83">
+    <row r="103" spans="1:84">
       <c r="A103" s="2">
         <v>42506</v>
       </c>
@@ -23133,8 +23439,11 @@
       <c r="CE103">
         <v>98.95999999999999</v>
       </c>
+      <c r="CF103">
+        <v>98.95999999999999</v>
+      </c>
     </row>
-    <row r="104" spans="1:83">
+    <row r="104" spans="1:84">
       <c r="A104" s="2">
         <v>42597</v>
       </c>
@@ -23246,8 +23555,11 @@
       <c r="CE104">
         <v>99.31</v>
       </c>
+      <c r="CF104">
+        <v>99.31</v>
+      </c>
     </row>
-    <row r="105" spans="1:83">
+    <row r="105" spans="1:84">
       <c r="A105" s="2">
         <v>42689</v>
       </c>
@@ -23356,8 +23668,11 @@
       <c r="CE105">
         <v>99.77</v>
       </c>
+      <c r="CF105">
+        <v>99.77</v>
+      </c>
     </row>
-    <row r="106" spans="1:83">
+    <row r="106" spans="1:84">
       <c r="A106" s="2">
         <v>42781</v>
       </c>
@@ -23463,8 +23778,11 @@
       <c r="CE106">
         <v>101.06</v>
       </c>
+      <c r="CF106">
+        <v>101.06</v>
+      </c>
     </row>
-    <row r="107" spans="1:83">
+    <row r="107" spans="1:84">
       <c r="A107" s="2">
         <v>42871</v>
       </c>
@@ -23567,8 +23885,11 @@
       <c r="CE107">
         <v>101.78</v>
       </c>
+      <c r="CF107">
+        <v>101.78</v>
+      </c>
     </row>
-    <row r="108" spans="1:83">
+    <row r="108" spans="1:84">
       <c r="A108" s="2">
         <v>42962</v>
       </c>
@@ -23668,8 +23989,11 @@
       <c r="CE108">
         <v>102.59</v>
       </c>
+      <c r="CF108">
+        <v>102.59</v>
+      </c>
     </row>
-    <row r="109" spans="1:83">
+    <row r="109" spans="1:84">
       <c r="A109" s="2">
         <v>43054</v>
       </c>
@@ -23766,8 +24090,11 @@
       <c r="CE109">
         <v>103.63</v>
       </c>
+      <c r="CF109">
+        <v>103.63</v>
+      </c>
     </row>
-    <row r="110" spans="1:83">
+    <row r="110" spans="1:84">
       <c r="A110" s="2">
         <v>43146</v>
       </c>
@@ -23861,8 +24188,11 @@
       <c r="CE110">
         <v>103.06</v>
       </c>
+      <c r="CF110">
+        <v>103.06</v>
+      </c>
     </row>
-    <row r="111" spans="1:83">
+    <row r="111" spans="1:84">
       <c r="A111" s="2">
         <v>43236</v>
       </c>
@@ -23953,8 +24283,11 @@
       <c r="CE111">
         <v>103.87</v>
       </c>
+      <c r="CF111">
+        <v>103.87</v>
+      </c>
     </row>
-    <row r="112" spans="1:83">
+    <row r="112" spans="1:84">
       <c r="A112" s="2">
         <v>43327</v>
       </c>
@@ -24042,8 +24375,11 @@
       <c r="CE112">
         <v>103.19</v>
       </c>
+      <c r="CF112">
+        <v>103.19</v>
+      </c>
     </row>
-    <row r="113" spans="1:83">
+    <row r="113" spans="1:84">
       <c r="A113" s="2">
         <v>43419</v>
       </c>
@@ -24128,8 +24464,11 @@
       <c r="CE113">
         <v>103.65</v>
       </c>
+      <c r="CF113">
+        <v>103.65</v>
+      </c>
     </row>
-    <row r="114" spans="1:83">
+    <row r="114" spans="1:84">
       <c r="A114" s="2">
         <v>43511</v>
       </c>
@@ -24211,8 +24550,11 @@
       <c r="CE114">
         <v>104.33</v>
       </c>
+      <c r="CF114">
+        <v>104.33</v>
+      </c>
     </row>
-    <row r="115" spans="1:83">
+    <row r="115" spans="1:84">
       <c r="A115" s="2">
         <v>43601</v>
       </c>
@@ -24291,8 +24633,11 @@
       <c r="CE115">
         <v>104.39</v>
       </c>
+      <c r="CF115">
+        <v>104.39</v>
+      </c>
     </row>
-    <row r="116" spans="1:83">
+    <row r="116" spans="1:84">
       <c r="A116" s="2">
         <v>43692</v>
       </c>
@@ -24368,8 +24713,11 @@
       <c r="CE116">
         <v>104.79</v>
       </c>
+      <c r="CF116">
+        <v>104.79</v>
+      </c>
     </row>
-    <row r="117" spans="1:83">
+    <row r="117" spans="1:84">
       <c r="A117" s="2">
         <v>43784</v>
       </c>
@@ -24442,8 +24790,11 @@
       <c r="CE117">
         <v>104.44</v>
       </c>
+      <c r="CF117">
+        <v>104.44</v>
+      </c>
     </row>
-    <row r="118" spans="1:83">
+    <row r="118" spans="1:84">
       <c r="A118" s="2">
         <v>43876</v>
       </c>
@@ -24513,8 +24864,11 @@
       <c r="CE118">
         <v>102.32</v>
       </c>
+      <c r="CF118">
+        <v>102.32</v>
+      </c>
     </row>
-    <row r="119" spans="1:83">
+    <row r="119" spans="1:84">
       <c r="A119" s="2">
         <v>43967</v>
       </c>
@@ -24581,8 +24935,11 @@
       <c r="CE119">
         <v>93.23999999999999</v>
       </c>
+      <c r="CF119">
+        <v>93.23999999999999</v>
+      </c>
     </row>
-    <row r="120" spans="1:83">
+    <row r="120" spans="1:84">
       <c r="A120" s="2">
         <v>44058</v>
       </c>
@@ -24646,8 +25003,11 @@
       <c r="CE120">
         <v>101.33</v>
       </c>
+      <c r="CF120">
+        <v>101.33</v>
+      </c>
     </row>
-    <row r="121" spans="1:83">
+    <row r="121" spans="1:84">
       <c r="A121" s="2">
         <v>44150</v>
       </c>
@@ -24708,8 +25068,11 @@
       <c r="CE121">
         <v>102.31</v>
       </c>
+      <c r="CF121">
+        <v>102.31</v>
+      </c>
     </row>
-    <row r="122" spans="1:83">
+    <row r="122" spans="1:84">
       <c r="A122" s="2">
         <v>44242</v>
       </c>
@@ -24767,8 +25130,11 @@
       <c r="CE122">
         <v>101.68</v>
       </c>
+      <c r="CF122">
+        <v>101.68</v>
+      </c>
     </row>
-    <row r="123" spans="1:83">
+    <row r="123" spans="1:84">
       <c r="A123" s="2">
         <v>44332</v>
       </c>
@@ -24823,8 +25189,11 @@
       <c r="CE123">
         <v>104.07</v>
       </c>
+      <c r="CF123">
+        <v>104.07</v>
+      </c>
     </row>
-    <row r="124" spans="1:83">
+    <row r="124" spans="1:84">
       <c r="A124" s="2">
         <v>44423</v>
       </c>
@@ -24876,8 +25245,11 @@
       <c r="CE124">
         <v>104.16</v>
       </c>
+      <c r="CF124">
+        <v>104.16</v>
+      </c>
     </row>
-    <row r="125" spans="1:83">
+    <row r="125" spans="1:84">
       <c r="A125" s="2">
         <v>44515</v>
       </c>
@@ -24926,8 +25298,11 @@
       <c r="CE125">
         <v>104.72</v>
       </c>
+      <c r="CF125">
+        <v>104.72</v>
+      </c>
     </row>
-    <row r="126" spans="1:83">
+    <row r="126" spans="1:84">
       <c r="A126" s="2">
         <v>44607</v>
       </c>
@@ -24973,8 +25348,11 @@
       <c r="CE126">
         <v>105.43</v>
       </c>
+      <c r="CF126">
+        <v>105.43</v>
+      </c>
     </row>
-    <row r="127" spans="1:83">
+    <row r="127" spans="1:84">
       <c r="A127" s="2">
         <v>44697</v>
       </c>
@@ -25017,8 +25395,11 @@
       <c r="CE127">
         <v>105.59</v>
       </c>
+      <c r="CF127">
+        <v>105.59</v>
+      </c>
     </row>
-    <row r="128" spans="1:83">
+    <row r="128" spans="1:84">
       <c r="A128" s="2">
         <v>44788</v>
       </c>
@@ -25058,8 +25439,11 @@
       <c r="CE128">
         <v>105.9</v>
       </c>
+      <c r="CF128">
+        <v>105.9</v>
+      </c>
     </row>
-    <row r="129" spans="1:83">
+    <row r="129" spans="1:84">
       <c r="A129" s="2">
         <v>44880</v>
       </c>
@@ -25096,8 +25480,11 @@
       <c r="CE129">
         <v>105.53</v>
       </c>
+      <c r="CF129">
+        <v>105.53</v>
+      </c>
     </row>
-    <row r="130" spans="1:83">
+    <row r="130" spans="1:84">
       <c r="A130" s="2">
         <v>44972</v>
       </c>
@@ -25131,8 +25518,11 @@
       <c r="CE130">
         <v>105.03</v>
       </c>
+      <c r="CF130">
+        <v>105.03</v>
+      </c>
     </row>
-    <row r="131" spans="1:83">
+    <row r="131" spans="1:84">
       <c r="A131" s="2">
         <v>45062</v>
       </c>
@@ -25163,8 +25553,11 @@
       <c r="CE131">
         <v>104.95</v>
       </c>
+      <c r="CF131">
+        <v>104.95</v>
+      </c>
     </row>
-    <row r="132" spans="1:83">
+    <row r="132" spans="1:84">
       <c r="A132" s="2">
         <v>45153</v>
       </c>
@@ -25192,8 +25585,11 @@
       <c r="CE132">
         <v>104.95</v>
       </c>
+      <c r="CF132">
+        <v>104.95</v>
+      </c>
     </row>
-    <row r="133" spans="1:83">
+    <row r="133" spans="1:84">
       <c r="A133" s="2">
         <v>45245</v>
       </c>
@@ -25218,8 +25614,11 @@
       <c r="CE133">
         <v>104.66</v>
       </c>
+      <c r="CF133">
+        <v>104.66</v>
+      </c>
     </row>
-    <row r="134" spans="1:83">
+    <row r="134" spans="1:84">
       <c r="A134" s="2">
         <v>45337</v>
       </c>
@@ -25241,8 +25640,11 @@
       <c r="CE134">
         <v>104.55</v>
       </c>
+      <c r="CF134">
+        <v>104.55</v>
+      </c>
     </row>
-    <row r="135" spans="1:83">
+    <row r="135" spans="1:84">
       <c r="A135" s="2">
         <v>45428</v>
       </c>
@@ -25261,8 +25663,11 @@
       <c r="CE135">
         <v>104.28</v>
       </c>
+      <c r="CF135">
+        <v>104.28</v>
+      </c>
     </row>
-    <row r="136" spans="1:83">
+    <row r="136" spans="1:84">
       <c r="A136" s="2">
         <v>45519</v>
       </c>
@@ -25278,8 +25683,11 @@
       <c r="CE136">
         <v>104.3</v>
       </c>
+      <c r="CF136">
+        <v>104.3</v>
+      </c>
     </row>
-    <row r="137" spans="1:83">
+    <row r="137" spans="1:84">
       <c r="A137" s="2">
         <v>45611</v>
       </c>
@@ -25292,8 +25700,11 @@
       <c r="CE137">
         <v>104.49</v>
       </c>
+      <c r="CF137">
+        <v>104.49</v>
+      </c>
     </row>
-    <row r="138" spans="1:83">
+    <row r="138" spans="1:84">
       <c r="A138" s="2">
         <v>45703</v>
       </c>
@@ -25303,18 +25714,32 @@
       <c r="CE138">
         <v>104.81</v>
       </c>
+      <c r="CF138">
+        <v>104.81</v>
+      </c>
     </row>
-    <row r="139" spans="1:83">
+    <row r="139" spans="1:84">
       <c r="A139" s="2">
         <v>45793</v>
       </c>
       <c r="CE139">
         <v>104.52</v>
       </c>
+      <c r="CF139">
+        <v>104.59</v>
+      </c>
     </row>
-    <row r="140" spans="1:83">
+    <row r="140" spans="1:84">
       <c r="A140" s="2">
         <v>45884</v>
+      </c>
+      <c r="CF140">
+        <v>104.59</v>
+      </c>
+    </row>
+    <row r="141" spans="1:84">
+      <c r="A141" s="2">
+        <v>45976</v>
       </c>
     </row>
   </sheetData>
